--- a/application/static/excel_data/data_crawling -- 6. #kuliahonline.xlsx
+++ b/application/static/excel_data/data_crawling -- 6. #kuliahonline.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="176">
   <si>
     <t>id</t>
   </si>
@@ -603,6 +603,111 @@
   </si>
   <si>
     <t>Sun Dec 13 01:13:30 +0000 2020</t>
+  </si>
+  <si>
+    <t>Dua Ribu Dua Pulu-h
+Kuliah tura turu
+Ujug-ujug tahun baru
+#COVID19indonesia #kuliahonline #belajardaring #kuliahdaring #2020 #2021 #Online #OnlineClasses #rebahan #seninsemangat #selasa #rabu #KamisManis #JumatBerkah #sabtu #minggu</t>
+  </si>
+  <si>
+    <t>allifi_nasihah</t>
+  </si>
+  <si>
+    <t>Thu Dec 17 15:17:06 +0000 2020</t>
+  </si>
+  <si>
+    <t>*JAPRI DOSEN*
+Mhsw : Mohon maaf pak, apakah boleh untuk pengumpulan UTS nya hari senin? Karena ada beberapa teman kita yg posisinya sedang tidak dikota, dan terhalang untuk mengumpulkan langsung .
+Dosen : TERSERAH SUDAH
+monggo rek piye masamu?
+#kuliahonline #deritadaring</t>
+  </si>
+  <si>
+    <t>panggilajasinyo</t>
+  </si>
+  <si>
+    <t>Thu Dec 17 12:38:27 +0000 2020</t>
+  </si>
+  <si>
+    <t>Tahun depan kuliah online, bantu cari alasan dong supaya bisa balik. Bosan di rumah uy, wkwk 😅😅 #kuliahonline #daring #kuliahdaring</t>
+  </si>
+  <si>
+    <t>danielbintangc3</t>
+  </si>
+  <si>
+    <t>Thu Dec 17 10:01:25 +0000 2020</t>
+  </si>
+  <si>
+    <t>⏩PAKET DESIGN ADOBE ILLUSTRATOR🤩 - Pembuatan Design Menggunakan Adobe Illustrator 18 Module 
+https://t.co/V7y8EtJmDu
+#PaketDesign #adobeillustrator #pakaimasker #jagajarak #mencucitangan #dirumahaja #kerjadarirumah #belajardirumah #KuliahOnline #IndonesiaMaju #ai #jagakesehatan</t>
+  </si>
+  <si>
+    <t>Thu Dec 17 10:00:01 +0000 2020</t>
+  </si>
+  <si>
+    <t>Pen belajar, tapi kok raga menolak #kuliahonline
+#tugasonline
+#rebahan
+#uts</t>
+  </si>
+  <si>
+    <t>incluede</t>
+  </si>
+  <si>
+    <t>Wed Dec 16 15:04:06 +0000 2020</t>
+  </si>
+  <si>
+    <t>⏩PAKET DESIGN ADOBE ILLUSTRATOR🤩 - Pembuatan Design Menggunakan Adobe Illustrator 18 Module 
+https://t.co/V7y8EtrLeU
+#PaketDesign #adobeillustrator #pakaimasker #jagajarak #mencucitangan #dirumahaja #kerjadarirumah #belajardirumah #KuliahOnline #IndonesiaMaju #ai #jagakesehatan</t>
+  </si>
+  <si>
+    <t>Wed Dec 16 09:00:01 +0000 2020</t>
+  </si>
+  <si>
+    <t>Dear akhir tahun
+Tolong jauhkan saya dari dosen yg ngasih tugas seminggu 2 kali, quiz tiap minggu, nanya tiap menjelaskan materi dan presentasi yang kalau ngk jawab di minus, soal ujian tdk sesuai kisi-kisi, dan selalu open cam 😊
+#kuliahonline</t>
+  </si>
+  <si>
+    <t>ffriskaamalia</t>
+  </si>
+  <si>
+    <t>Wed Dec 16 04:53:44 +0000 2020</t>
+  </si>
+  <si>
+    <t>Teteplah santuy
+Walaupun tugas seperti pasir di pantai...😎
+#tugas #kuliahonline</t>
+  </si>
+  <si>
+    <t>Ndeanindah</t>
+  </si>
+  <si>
+    <t>Wed Dec 16 03:39:08 +0000 2020</t>
+  </si>
+  <si>
+    <t>https://t.co/E6oEjMlfxT
+Bantuan pelajar dan Mahasiswa
+#KuliahOnline 
+#indonesiaprokerja</t>
+  </si>
+  <si>
+    <t>587bb6eb4c48434</t>
+  </si>
+  <si>
+    <t>Tue Dec 15 13:56:43 +0000 2020</t>
+  </si>
+  <si>
+    <t>Bacaan dari Blog: Bagaimana ilmu komunikasi lingkungan berkembang dan kenapa ilmu ini penting? https://t.co/b4cinB59AH #blogging #blogger #Bloggers #kuliah #KuliahOnline #komunikasi</t>
+  </si>
+  <si>
+    <t>sdpinuji</t>
+  </si>
+  <si>
+    <t>Tue Dec 15 01:38:00 +0000 2020</t>
   </si>
 </sst>
 </file>
@@ -965,10 +1070,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D63"/>
+  <dimension ref="A1:D74"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="H68" sqref="H68"/>
+      <selection activeCell="J71" sqref="J71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1855,6 +1960,160 @@
         <v>114</v>
       </c>
     </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>1.3395904509995579E+18</v>
+      </c>
+      <c r="B64" t="s">
+        <v>148</v>
+      </c>
+      <c r="C64" t="s">
+        <v>149</v>
+      </c>
+      <c r="D64" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>1.3395505253610171E+18</v>
+      </c>
+      <c r="B65" t="s">
+        <v>151</v>
+      </c>
+      <c r="C65" t="s">
+        <v>152</v>
+      </c>
+      <c r="D65" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>1.3395110050516869E+18</v>
+      </c>
+      <c r="B66" t="s">
+        <v>154</v>
+      </c>
+      <c r="C66" t="s">
+        <v>155</v>
+      </c>
+      <c r="D66" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>1.3395106546638359E+18</v>
+      </c>
+      <c r="B67" t="s">
+        <v>157</v>
+      </c>
+      <c r="C67" t="s">
+        <v>57</v>
+      </c>
+      <c r="D67" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>1.339224792780534E+18</v>
+      </c>
+      <c r="B68" t="s">
+        <v>159</v>
+      </c>
+      <c r="C68" t="s">
+        <v>160</v>
+      </c>
+      <c r="D68" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <v>1.3391331650345861E+18</v>
+      </c>
+      <c r="B69" t="s">
+        <v>162</v>
+      </c>
+      <c r="C69" t="s">
+        <v>57</v>
+      </c>
+      <c r="D69" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <v>1.339071189486998E+18</v>
+      </c>
+      <c r="B70" t="s">
+        <v>164</v>
+      </c>
+      <c r="C70" t="s">
+        <v>165</v>
+      </c>
+      <c r="D70" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <v>1.339052415199244E+18</v>
+      </c>
+      <c r="B71" t="s">
+        <v>167</v>
+      </c>
+      <c r="C71" t="s">
+        <v>168</v>
+      </c>
+      <c r="D71" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <v>1.3388454470586821E+18</v>
+      </c>
+      <c r="B72" t="s">
+        <v>170</v>
+      </c>
+      <c r="C72" t="s">
+        <v>171</v>
+      </c>
+      <c r="D72" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <v>1.338659543665046E+18</v>
+      </c>
+      <c r="B73" t="s">
+        <v>173</v>
+      </c>
+      <c r="C73" t="s">
+        <v>174</v>
+      </c>
+      <c r="D73" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <v>1.338424929503465E+18</v>
+      </c>
+      <c r="B74" t="s">
+        <v>124</v>
+      </c>
+      <c r="C74" t="s">
+        <v>125</v>
+      </c>
+      <c r="D74" t="s">
+        <v>126</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/application/static/excel_data/data_crawling -- 6. #kuliahonline.xlsx
+++ b/application/static/excel_data/data_crawling -- 6. #kuliahonline.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="195">
   <si>
     <t>id</t>
   </si>
@@ -708,6 +708,87 @@
   </si>
   <si>
     <t>Tue Dec 15 01:38:00 +0000 2020</t>
+  </si>
+  <si>
+    <t>Terkadang seseorang datang dengan membawa masalahnya bukan meminta untuk dinasihati tetapi untuk dimengerti. Be emphaty :)
+~rosyanurafaghus
+#mahasiswa 
+#kulon
+#kuliahonline</t>
+  </si>
+  <si>
+    <t>afifah_rosya</t>
+  </si>
+  <si>
+    <t>Sun Dec 20 10:05:35 +0000 2020</t>
+  </si>
+  <si>
+    <t>#KuliahOnline Pengertian dan Ruang Lingkup #Manajemen #Pemasaran. https://t.co/biHHPhoFGF via @YouTube</t>
+  </si>
+  <si>
+    <t>faisalm89819181</t>
+  </si>
+  <si>
+    <t>Sat Dec 19 19:14:46 +0000 2020</t>
+  </si>
+  <si>
+    <t>Semangat untuk UAS online ~💪🌻
+#KuliahOnline</t>
+  </si>
+  <si>
+    <t>spuluhdesember</t>
+  </si>
+  <si>
+    <t>Fri Dec 18 14:30:27 +0000 2020</t>
+  </si>
+  <si>
+    <t>Buku Manajemen Pengadaan Barang dan Jasa Pemerintah seharga Rp143.000. Dapatkan produk ini hanya di Shopee! https://t.co/zSIcVk7igj #ShopeeID #Shopee #manajemen #bookstagram #lelang #pengadaanbarang #manajemenpengadaan #buku #bukumanajemen #bukukuliah #kuliahonline #sukseslelang https://t.co/Cqtam1nvc7</t>
+  </si>
+  <si>
+    <t>HonBookStore</t>
+  </si>
+  <si>
+    <t>Fri Dec 18 14:27:54 +0000 2020</t>
+  </si>
+  <si>
+    <t>Buku Langkah Runtut Menghitung Rencana Anggaran Biaya Bangunan (Full Color) seharga Rp89.000. Dapatkan produk ini hanya di Shopee! https://t.co/xm2nBtTEiS #ShopeeID #Shopee #arsitek #arsitektur #tekniksipil #bookstagram #buku #RAB #ATAYKPN #teknikarsitek #bukukuliah #kuliahonline https://t.co/OgGnDJ7vYQ</t>
+  </si>
+  <si>
+    <t>Fri Dec 18 14:24:32 +0000 2020</t>
+  </si>
+  <si>
+    <t>Buku Bahan Ajar Sistem Informasi Manajemen seharga Rp93.000. Dapatkan produk ini hanya di Shopee! https://t.co/yR5uc0jGU0 #ShopeeID #Shopee #buku #bukumanajemen #manajemen #bookstagram #bukukuliah #kuliahonline #skripsi #tesis #tugasakhir #ilmumanajemen #fakultasmanajemen #TA https://t.co/8X9VW72RDz</t>
+  </si>
+  <si>
+    <t>Fri Dec 18 14:19:56 +0000 2020</t>
+  </si>
+  <si>
+    <t>Fri Dec 18 11:00:00 +0000 2020</t>
+  </si>
+  <si>
+    <t>#ready4BO
+ST / LT 💦
+Area JAKSEL🏨 
+Info DM📲 085772612527
+#RealAngel
+#bispakjakarta 
+#TRUSTEDBISYAR
+#includeroom
+#TRUSTEDBISYAR 
+#bisyarJaksel 
+#BOjakarta 
+#bisyarjakarta
+#TRUSTEDBISYAR
+#bispakjakarta
+#bojaksel
+#BOjakarta
+#KulinerLendir
+#KuliahOnline
+#openBOjaksel
+#AvailJaksel https://t.co/B0YblIQCpg</t>
+  </si>
+  <si>
+    <t>Fri Dec 18 03:15:15 +0000 2020</t>
   </si>
 </sst>
 </file>
@@ -1070,10 +1151,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D74"/>
+  <dimension ref="A1:D86"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="J71" sqref="J71"/>
+    <sheetView tabSelected="1" topLeftCell="A72" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="I78" sqref="I78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2114,6 +2195,174 @@
         <v>126</v>
       </c>
     </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <v>1.3405992200514071E+18</v>
+      </c>
+      <c r="B75" t="s">
+        <v>176</v>
+      </c>
+      <c r="C75" t="s">
+        <v>177</v>
+      </c>
+      <c r="D75" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <v>1.3403750379041789E+18</v>
+      </c>
+      <c r="B76" t="s">
+        <v>179</v>
+      </c>
+      <c r="C76" t="s">
+        <v>180</v>
+      </c>
+      <c r="D76" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <v>1.3399411003462531E+18</v>
+      </c>
+      <c r="B77" t="s">
+        <v>182</v>
+      </c>
+      <c r="C77" t="s">
+        <v>183</v>
+      </c>
+      <c r="D77" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A78">
+        <v>1.339940456436617E+18</v>
+      </c>
+      <c r="B78" t="s">
+        <v>185</v>
+      </c>
+      <c r="C78" t="s">
+        <v>186</v>
+      </c>
+      <c r="D78" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A79">
+        <v>1.339939609480843E+18</v>
+      </c>
+      <c r="B79" t="s">
+        <v>188</v>
+      </c>
+      <c r="C79" t="s">
+        <v>186</v>
+      </c>
+      <c r="D79" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A80">
+        <v>1.3399384537277599E+18</v>
+      </c>
+      <c r="B80" t="s">
+        <v>190</v>
+      </c>
+      <c r="C80" t="s">
+        <v>186</v>
+      </c>
+      <c r="D80" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A81">
+        <v>1.339888136969728E+18</v>
+      </c>
+      <c r="B81" t="s">
+        <v>157</v>
+      </c>
+      <c r="C81" t="s">
+        <v>57</v>
+      </c>
+      <c r="D81" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A82">
+        <v>1.339771178144055E+18</v>
+      </c>
+      <c r="B82" t="s">
+        <v>193</v>
+      </c>
+      <c r="C82" t="s">
+        <v>70</v>
+      </c>
+      <c r="D82" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A83">
+        <v>1.3395904509995579E+18</v>
+      </c>
+      <c r="B83" t="s">
+        <v>148</v>
+      </c>
+      <c r="C83" t="s">
+        <v>149</v>
+      </c>
+      <c r="D83" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A84">
+        <v>1.3395505253610171E+18</v>
+      </c>
+      <c r="B84" t="s">
+        <v>151</v>
+      </c>
+      <c r="C84" t="s">
+        <v>152</v>
+      </c>
+      <c r="D84" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A85">
+        <v>1.3395110050516869E+18</v>
+      </c>
+      <c r="B85" t="s">
+        <v>154</v>
+      </c>
+      <c r="C85" t="s">
+        <v>155</v>
+      </c>
+      <c r="D85" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A86">
+        <v>1.3395106546638359E+18</v>
+      </c>
+      <c r="B86" t="s">
+        <v>157</v>
+      </c>
+      <c r="C86" t="s">
+        <v>57</v>
+      </c>
+      <c r="D86" t="s">
+        <v>158</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/application/static/excel_data/data_crawling -- 6. #kuliahonline.xlsx
+++ b/application/static/excel_data/data_crawling -- 6. #kuliahonline.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="195">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="223">
   <si>
     <t>id</t>
   </si>
@@ -789,6 +789,111 @@
   </si>
   <si>
     <t>Fri Dec 18 03:15:15 +0000 2020</t>
+  </si>
+  <si>
+    <t>Eh eh ada yg introvert gak nih disini? 
+Nih mimin kasih jurusan cocok buat kmuu ☺️
+Cek 👇
+https://t.co/6bnYERsLTR
+#jurusankuliah #snmptn2021 #infosbmptn #utbk2021 #beasiswa #infomenarik #kuliahonline #FYP #masukkampus #kampusfavorit #ugm #ui #undip #ltmpt #anaksma #pejuang21 https://t.co/ViMg8DUJh5</t>
+  </si>
+  <si>
+    <t>Fri Dec 25 10:12:20 +0000 2020</t>
+  </si>
+  <si>
+    <t>Ketika lihat omongan dosen di grup kelas 
+Dosen : " anak-anak mata kuliah dimulai 5 menit lagi"
+Request buat alasan yng paling manjur? 
+#kuliahonline
+#kuliah</t>
+  </si>
+  <si>
+    <t>cimolse</t>
+  </si>
+  <si>
+    <t>Thu Dec 24 11:56:53 +0000 2020</t>
+  </si>
+  <si>
+    <t>Ternyata serba online itu sulit ya.
+Dari kuliah online, sekolah online, dan chattingan 7 hari sekilas centang biru padahal online. Syukur syukur adaptasi nya gak lewat online juga ... Leee 
+#online #kuliahonline #serbaonline</t>
+  </si>
+  <si>
+    <t>DedekGu58931839</t>
+  </si>
+  <si>
+    <t>Thu Dec 24 04:50:24 +0000 2020</t>
+  </si>
+  <si>
+    <t>uang segitu, ngga layak sih sama apa yang didapet,denger temen yang udah kerja juga malah jadi pengen ikutan kerja.inget tujuan awal heh udah ngorbanin apa aja buat bisa masuk kuliah :)
+#kuliahonline #coronaasu #salahesopojal #cowoktetepsalah</t>
+  </si>
+  <si>
+    <t>Wed Dec 23 17:21:50 +0000 2020</t>
+  </si>
+  <si>
+    <t>Kalimat paling horror pas kulon bukan
+"ayo siapa yg mau bertanya"
+Tapi ...
+"Ayo buka kameranya saya hitung sampe 3"
+langsung kelayapan nyari kerudung 😬😬
+#kuliahonline</t>
+  </si>
+  <si>
+    <t>Piyaaaakkk</t>
+  </si>
+  <si>
+    <t>Wed Dec 23 11:22:20 +0000 2020</t>
+  </si>
+  <si>
+    <t>⏩PAKET DESIGN #ADOBE ILLUSTRATOR🤩 - Pembuatan Design Menggunakan Adobe Illustrator 18 Module https://t.co/V7y8EtrLeU
+#PaketDesign #adobeillustrator #pakaimasker #jagajarak #cucitangan #dirumahaja #kerjadarirumah #belajardirumah #KuliahOnline #IndonesiaSehat #ai #jagakesehatan</t>
+  </si>
+  <si>
+    <t>Wed Dec 23 01:00:00 +0000 2020</t>
+  </si>
+  <si>
+    <t>Yg penting selalu berubah dgn menjadi baik dan bermanfaat. Ilmu saat kuliah untuk modal awal cara berpikir dan bertindak
+#ITBlogAwards #pendidikan #kuliah #KuliahOnline #Training #Menkes #menag #sandiagauno #ReshuffleKabinet #ilmufardukifayah #YaqutCholilQoumas</t>
+  </si>
+  <si>
+    <t>MKompetensi</t>
+  </si>
+  <si>
+    <t>Tue Dec 22 14:12:10 +0000 2020</t>
+  </si>
+  <si>
+    <t>Jangan Ragu Kuliah dengan konsep yang fleksibel dan biaya terjangkau , UMT solusinya .
+#umtindonesia #umt #maba2021 #mabacovid #KuliahOnline https://t.co/QKzdFiLa25</t>
+  </si>
+  <si>
+    <t>UMT_Indonesia</t>
+  </si>
+  <si>
+    <t>Tue Dec 22 09:52:52 +0000 2020</t>
+  </si>
+  <si>
+    <t>Pengertian Kebijakan Mutu https://t.co/sUErkXK7nz #mutu #kebijakanmutu #Quality #qualitycontrol #kualitas #manajemenmutu #KuliahOnline #teknikindustri #industrial #America #qualitypolicy #seventools #lean #Germany #England #Jakarta #University #manajemen #surabaya #sarjana #uii https://t.co/IatX9ngVJO</t>
+  </si>
+  <si>
+    <t>charif_noor</t>
+  </si>
+  <si>
+    <t>Tue Dec 22 09:34:59 +0000 2020</t>
+  </si>
+  <si>
+    <t>Tue Dec 22 01:00:00 +0000 2020</t>
+  </si>
+  <si>
+    <t>Bangun langsung cuci muka ❎
+Bangun langsung presentasi ✔
+#kuliah #kuliahonline #ceritapagi #daring #lelucon #mendesak #presentasi #sayamautobat</t>
+  </si>
+  <si>
+    <t>orhandy_</t>
+  </si>
+  <si>
+    <t>Tue Dec 22 00:17:28 +0000 2020</t>
   </si>
 </sst>
 </file>
@@ -1151,10 +1256,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D86"/>
+  <dimension ref="A1:D97"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A72" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I78" sqref="I78"/>
+      <selection activeCell="I88" sqref="I88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2363,6 +2468,160 @@
         <v>158</v>
       </c>
     </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A87">
+        <v>1.3424128558998689E+18</v>
+      </c>
+      <c r="B87" t="s">
+        <v>195</v>
+      </c>
+      <c r="C87" t="s">
+        <v>11</v>
+      </c>
+      <c r="D87" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A88">
+        <v>1.342076779947692E+18</v>
+      </c>
+      <c r="B88" t="s">
+        <v>197</v>
+      </c>
+      <c r="C88" t="s">
+        <v>198</v>
+      </c>
+      <c r="D88" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A89">
+        <v>1.341969450556223E+18</v>
+      </c>
+      <c r="B89" t="s">
+        <v>200</v>
+      </c>
+      <c r="C89" t="s">
+        <v>201</v>
+      </c>
+      <c r="D89" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A90">
+        <v>1.3417961682258371E+18</v>
+      </c>
+      <c r="B90" t="s">
+        <v>203</v>
+      </c>
+      <c r="C90" t="s">
+        <v>137</v>
+      </c>
+      <c r="D90" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A91">
+        <v>1.3417056984978099E+18</v>
+      </c>
+      <c r="B91" t="s">
+        <v>205</v>
+      </c>
+      <c r="C91" t="s">
+        <v>206</v>
+      </c>
+      <c r="D91" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A92">
+        <v>1.3415490809005629E+18</v>
+      </c>
+      <c r="B92" t="s">
+        <v>208</v>
+      </c>
+      <c r="C92" t="s">
+        <v>57</v>
+      </c>
+      <c r="D92" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A93">
+        <v>1.341386047612023E+18</v>
+      </c>
+      <c r="B93" t="s">
+        <v>210</v>
+      </c>
+      <c r="C93" t="s">
+        <v>211</v>
+      </c>
+      <c r="D93" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A94">
+        <v>1.341320794790453E+18</v>
+      </c>
+      <c r="B94" t="s">
+        <v>213</v>
+      </c>
+      <c r="C94" t="s">
+        <v>214</v>
+      </c>
+      <c r="D94" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A95">
+        <v>1.3413162918024809E+18</v>
+      </c>
+      <c r="B95" t="s">
+        <v>216</v>
+      </c>
+      <c r="C95" t="s">
+        <v>217</v>
+      </c>
+      <c r="D95" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A96">
+        <v>1.3411866940919191E+18</v>
+      </c>
+      <c r="B96" t="s">
+        <v>208</v>
+      </c>
+      <c r="C96" t="s">
+        <v>57</v>
+      </c>
+      <c r="D96" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A97">
+        <v>1.341175988797854E+18</v>
+      </c>
+      <c r="B97" t="s">
+        <v>220</v>
+      </c>
+      <c r="C97" t="s">
+        <v>221</v>
+      </c>
+      <c r="D97" t="s">
+        <v>222</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/application/static/excel_data/data_crawling -- 6. #kuliahonline.xlsx
+++ b/application/static/excel_data/data_crawling -- 6. #kuliahonline.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="223">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="230">
   <si>
     <t>id</t>
   </si>
@@ -894,6 +894,34 @@
   </si>
   <si>
     <t>Tue Dec 22 00:17:28 +0000 2020</t>
+  </si>
+  <si>
+    <t>⏩PAKET DESIGN #ADOBE ILLUSTRATOR🤩 - Pembuatan Design Menggunakan Adobe Illustrator 18 Module https://t.co/V7y8EtJmDu
+#PaketDesign #adobeillustrator #pakaimasker #jagajarak #cucitangan #dirumahsaja #belajardirumah #KuliahOnline #IndonesiaSehat #ai #jagakesehatan #IndonesiaMaju</t>
+  </si>
+  <si>
+    <t>Sun Dec 27 04:00:00 +0000 2020</t>
+  </si>
+  <si>
+    <t>⏩PAKET DESIGN #ADOBE ILLUSTRATOR🤩 - Pembuatan Design Menggunakan Adobe Illustrator 18 Module https://t.co/V7y8EtrLeU
+#PaketDesign #adobeillustrator #pakaimasker #jagajarak #cucitangan #dirumahsaja #belajardirumah #KuliahOnline #IndonesiaSehat #ai #jagakesehatan #IndonesiaMaju</t>
+  </si>
+  <si>
+    <t>Sat Dec 26 04:00:00 +0000 2020</t>
+  </si>
+  <si>
+    <t>Adek-adek Undip qu, kalian tau gak kalau semester depan ternyata kuliahnya ada yang online tapi ada juga yang offline? 
+waduh? 
+maksudnya gimana? 
+yauda lah, baca sendiri pedomannya :
+https://t.co/Gqm23dH18q
+#Undip #UniversitasDiponegoro #KuliahOnline #KULONUNDIP</t>
+  </si>
+  <si>
+    <t>cccyrose</t>
+  </si>
+  <si>
+    <t>Sat Dec 26 03:45:12 +0000 2020</t>
   </si>
 </sst>
 </file>
@@ -1256,10 +1284,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D97"/>
+  <dimension ref="A1:D101"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A72" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I88" sqref="I88"/>
+      <selection activeCell="J93" sqref="J93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2622,6 +2650,62 @@
         <v>222</v>
       </c>
     </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A98">
+        <v>1.343043933564244E+18</v>
+      </c>
+      <c r="B98" t="s">
+        <v>223</v>
+      </c>
+      <c r="C98" t="s">
+        <v>57</v>
+      </c>
+      <c r="D98" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A99">
+        <v>1.34268154246051E+18</v>
+      </c>
+      <c r="B99" t="s">
+        <v>225</v>
+      </c>
+      <c r="C99" t="s">
+        <v>57</v>
+      </c>
+      <c r="D99" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A100">
+        <v>1.3426778189629189E+18</v>
+      </c>
+      <c r="B100" t="s">
+        <v>227</v>
+      </c>
+      <c r="C100" t="s">
+        <v>228</v>
+      </c>
+      <c r="D100" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A101">
+        <v>1.3424128558998689E+18</v>
+      </c>
+      <c r="B101" t="s">
+        <v>195</v>
+      </c>
+      <c r="C101" t="s">
+        <v>11</v>
+      </c>
+      <c r="D101" t="s">
+        <v>196</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/application/static/excel_data/data_crawling -- 6. #kuliahonline.xlsx
+++ b/application/static/excel_data/data_crawling -- 6. #kuliahonline.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="230">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="361" uniqueCount="271">
   <si>
     <t>id</t>
   </si>
@@ -922,6 +922,162 @@
   </si>
   <si>
     <t>Sat Dec 26 03:45:12 +0000 2020</t>
+  </si>
+  <si>
+    <t>Abisan tiap gua lagi semangat ngerjain tugas ada aja setan yang bikin gua ikut ngerjain h-1 @memsyeatiwinima orang ini contohnya ekke #kuliah #kuliahonline #karawangfess https://t.co/UJhimslzl4</t>
+  </si>
+  <si>
+    <t>EkaadjiM</t>
+  </si>
+  <si>
+    <t>Wed Dec 30 12:47:43 +0000 2020</t>
+  </si>
+  <si>
+    <t>[Pembukaan Akses Kampus Untuk Perkuliahan Tatap Muka Semester II 2020/2021]
+Sejalan dengan semangat untuk mencapai Learning Outcome pembelajaran secara optimal selengkapnya...
+#akademikitb #kuliahonline #kuliahoffline #tatapmuka #infoakademik #itb1920
+https://t.co/TaZG673bSO</t>
+  </si>
+  <si>
+    <t>ditmawa_itb</t>
+  </si>
+  <si>
+    <t>Wed Dec 30 08:58:55 +0000 2020</t>
+  </si>
+  <si>
+    <t>Wed Dec 30 04:00:01 +0000 2020</t>
+  </si>
+  <si>
+    <t>Tue Dec 29 04:00:00 +0000 2020</t>
+  </si>
+  <si>
+    <t>Bhs. Indonesia (Pembentukan dan teknik perkembangan paragraf)
+#kuliahonline https://t.co/98iqe72HVM</t>
+  </si>
+  <si>
+    <t>ptrptrsiaaaa</t>
+  </si>
+  <si>
+    <t>Tue Dec 29 02:35:23 +0000 2020</t>
+  </si>
+  <si>
+    <t>Nihh buat yang bingung aku kasih demonya,keren pisannya soalna aku yang buat hihi
+#YouTubeDOWN 
+#flutter 
+#software 
+#Coding 
+#KuliahOnline 
+#Bitcoin https://t.co/khvne3TjJS</t>
+  </si>
+  <si>
+    <t>alderuu</t>
+  </si>
+  <si>
+    <t>Mon Dec 28 13:58:46 +0000 2020</t>
+  </si>
+  <si>
+    <t>Monarki adalah pemerintahan oleh satu orang.
+Oligarki adalah pemerintahan oleh beberapa orang.
+Demokrasi adalah pemerintahan oleh DEMOS (seluruh rakyat)
+#KuliahOnline</t>
+  </si>
+  <si>
+    <t>DosenHaris</t>
+  </si>
+  <si>
+    <t>Mon Dec 28 13:43:30 +0000 2020</t>
+  </si>
+  <si>
+    <t>Evaluasi strategi adalah cara bagi pelaku bisnis untuk mengevaluasi posisi perusahaan dalam upaya mencapai tujuan strategis. 
+#KuliahOnline</t>
+  </si>
+  <si>
+    <t>Mon Dec 28 13:24:44 +0000 2020</t>
+  </si>
+  <si>
+    <t>Para manajer divisi dan wilayah fungsional harus bekerjasama dengan rekan manajer yang lainnya dalam mengembangkan program, anggaran dan prosedur untuk mendukung implementasi strategi.
+#KuliahOnline
+#kuliah #manajemen #strategik</t>
+  </si>
+  <si>
+    <t>Mon Dec 28 12:31:48 +0000 2020</t>
+  </si>
+  <si>
+    <t>Dibandingkan dengan pihak yang merumuskan strategi,  biasanya  pihak yang melakukan implementasi strategi  jumlahnya lebih banyak. 
+#KuliahOnline</t>
+  </si>
+  <si>
+    <t>Mon Dec 28 12:23:13 +0000 2020</t>
+  </si>
+  <si>
+    <t>Implementasi Strategi Implementasi strategi adalah jumlah keseluruhan aktifitas dan pilihan yang dibutuhkan untuk dapat menjalankan perencanaan strategis.
+#KuliahOnline
+#kuliah #manajemen</t>
+  </si>
+  <si>
+    <t>Mon Dec 28 12:10:44 +0000 2020</t>
+  </si>
+  <si>
+    <t>Implementasi strategi membutuhkan tindakan-tindakan seperti: perubahan struktur organisasi, alokasi sumberdaya, 
+program kompensasi, merubah strategi harga, budaya perusahaan, membuat sistem informasi manajemen yang lebih baik, dan sebagainya. 
+#KuliahOnline</t>
+  </si>
+  <si>
+    <t>Mon Dec 28 12:05:25 +0000 2020</t>
+  </si>
+  <si>
+    <t>Yukk kelas malam,
+Kita mulai pembahasan tentang Implementasi Strategi.
+#kuliahonline</t>
+  </si>
+  <si>
+    <t>Mon Dec 28 12:02:22 +0000 2020</t>
+  </si>
+  <si>
+    <t>Hubungan antara Perumusan strategi dan Implementasi strategi.
+Jika formulasi nya baik, sementara implementasi nya buruk maka hasilnya akan bermasalah.
+#KuliahOnline #Management #strategy https://t.co/uUNhORoR7b</t>
+  </si>
+  <si>
+    <t>Mon Dec 28 09:50:21 +0000 2020</t>
+  </si>
+  <si>
+    <t>Baik bu/pak
+Sudah bu/pak 
+Tiba” udh mau UAS aja 🙃 
+#KuliahOnline</t>
+  </si>
+  <si>
+    <t>wulllnn</t>
+  </si>
+  <si>
+    <t>Mon Dec 28 06:02:54 +0000 2020</t>
+  </si>
+  <si>
+    <t>Mon Dec 28 04:00:00 +0000 2020</t>
+  </si>
+  <si>
+    <t>Selamat pagi, guys! 
+Yuk jangan pusing sama tugas dan skripsi.  Dm IG @yourjoki_ , atau WA kita aja nih... https://t.co/zj967nVVCH
+#jasa #jokitugas #jasatugas #kuliah #kuliahonline #kuliahdaring #NyindirAlus #aespa #ShingekiNoKyojin https://t.co/LsaThpJSCe</t>
+  </si>
+  <si>
+    <t>HazelNu04222120</t>
+  </si>
+  <si>
+    <t>Sun Dec 27 23:34:46 +0000 2020</t>
+  </si>
+  <si>
+    <t>Wakil Rektor Bidang Akademik Unhas (@hasanuddin_univ), Prof Dr Ir Muh Restu MP mengatakan bahwa Semester akhir Tahun Akademik 2020/2021 tetap dilaksanakan secara daring.
+Bagaimana menurut ta' Sobat Ident?
+https://t.co/QWWvndiuYo
+#UniversitasHasanuddin #Unhas #KuliahOnline</t>
+  </si>
+  <si>
+    <t>identitasonline</t>
+  </si>
+  <si>
+    <t>Sun Dec 27 15:00:50 +0000 2020</t>
   </si>
 </sst>
 </file>
@@ -1284,10 +1440,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D101"/>
+  <dimension ref="A1:D120"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A72" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="J93" sqref="J93"/>
+    <sheetView tabSelected="1" topLeftCell="A96" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="I119" sqref="I119"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2706,6 +2862,272 @@
         <v>196</v>
       </c>
     </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A102">
+        <v>1.3442638976420129E+18</v>
+      </c>
+      <c r="B102" t="s">
+        <v>230</v>
+      </c>
+      <c r="C102" t="s">
+        <v>231</v>
+      </c>
+      <c r="D102" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A103">
+        <v>1.3442063215082171E+18</v>
+      </c>
+      <c r="B103" t="s">
+        <v>233</v>
+      </c>
+      <c r="C103" t="s">
+        <v>234</v>
+      </c>
+      <c r="D103" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A104">
+        <v>1.3441310977901811E+18</v>
+      </c>
+      <c r="B104" t="s">
+        <v>223</v>
+      </c>
+      <c r="C104" t="s">
+        <v>57</v>
+      </c>
+      <c r="D104" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A105">
+        <v>1.343768708385108E+18</v>
+      </c>
+      <c r="B105" t="s">
+        <v>225</v>
+      </c>
+      <c r="C105" t="s">
+        <v>57</v>
+      </c>
+      <c r="D105" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A106">
+        <v>1.343747411529748E+18</v>
+      </c>
+      <c r="B106" t="s">
+        <v>238</v>
+      </c>
+      <c r="C106" t="s">
+        <v>239</v>
+      </c>
+      <c r="D106" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A107">
+        <v>1.343557005286334E+18</v>
+      </c>
+      <c r="B107" t="s">
+        <v>241</v>
+      </c>
+      <c r="C107" t="s">
+        <v>242</v>
+      </c>
+      <c r="D107" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A108">
+        <v>1.3435531616891369E+18</v>
+      </c>
+      <c r="B108" t="s">
+        <v>244</v>
+      </c>
+      <c r="C108" t="s">
+        <v>245</v>
+      </c>
+      <c r="D108" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A109">
+        <v>1.3435484384204191E+18</v>
+      </c>
+      <c r="B109" t="s">
+        <v>247</v>
+      </c>
+      <c r="C109" t="s">
+        <v>245</v>
+      </c>
+      <c r="D109" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A110">
+        <v>1.3435351194249129E+18</v>
+      </c>
+      <c r="B110" t="s">
+        <v>249</v>
+      </c>
+      <c r="C110" t="s">
+        <v>245</v>
+      </c>
+      <c r="D110" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A111">
+        <v>1.34353295773089E+18</v>
+      </c>
+      <c r="B111" t="s">
+        <v>251</v>
+      </c>
+      <c r="C111" t="s">
+        <v>245</v>
+      </c>
+      <c r="D111" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A112">
+        <v>1.343529816843198E+18</v>
+      </c>
+      <c r="B112" t="s">
+        <v>253</v>
+      </c>
+      <c r="C112" t="s">
+        <v>245</v>
+      </c>
+      <c r="D112" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A113">
+        <v>1.3435284791915269E+18</v>
+      </c>
+      <c r="B113" t="s">
+        <v>255</v>
+      </c>
+      <c r="C113" t="s">
+        <v>245</v>
+      </c>
+      <c r="D113" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A114">
+        <v>1.3435277100233029E+18</v>
+      </c>
+      <c r="B114" t="s">
+        <v>257</v>
+      </c>
+      <c r="C114" t="s">
+        <v>245</v>
+      </c>
+      <c r="D114" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A115">
+        <v>1.343494489579561E+18</v>
+      </c>
+      <c r="B115" t="s">
+        <v>259</v>
+      </c>
+      <c r="C115" t="s">
+        <v>245</v>
+      </c>
+      <c r="D115" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A116">
+        <v>1.3434372463392891E+18</v>
+      </c>
+      <c r="B116" t="s">
+        <v>261</v>
+      </c>
+      <c r="C116" t="s">
+        <v>262</v>
+      </c>
+      <c r="D116" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A117">
+        <v>1.3434063182084869E+18</v>
+      </c>
+      <c r="B117" t="s">
+        <v>225</v>
+      </c>
+      <c r="C117" t="s">
+        <v>57</v>
+      </c>
+      <c r="D117" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A118">
+        <v>1.3433395693877289E+18</v>
+      </c>
+      <c r="B118" t="s">
+        <v>265</v>
+      </c>
+      <c r="C118" t="s">
+        <v>266</v>
+      </c>
+      <c r="D118" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A119">
+        <v>1.3432102344337001E+18</v>
+      </c>
+      <c r="B119" t="s">
+        <v>268</v>
+      </c>
+      <c r="C119" t="s">
+        <v>269</v>
+      </c>
+      <c r="D119" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A120">
+        <v>1.343043933564244E+18</v>
+      </c>
+      <c r="B120" t="s">
+        <v>223</v>
+      </c>
+      <c r="C120" t="s">
+        <v>57</v>
+      </c>
+      <c r="D120" t="s">
+        <v>224</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/application/static/excel_data/data_crawling -- 6. #kuliahonline.xlsx
+++ b/application/static/excel_data/data_crawling -- 6. #kuliahonline.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="361" uniqueCount="271">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="382" uniqueCount="282">
   <si>
     <t>id</t>
   </si>
@@ -1078,6 +1078,48 @@
   </si>
   <si>
     <t>Sun Dec 27 15:00:50 +0000 2020</t>
+  </si>
+  <si>
+    <t>Sambut tahun 2021, dengan semangat baru. Suteki akan terus berkomitmen dalam menghadirkan solusi terbaik untuk teknologi Pendidikan Indonesia.
+Yuk menjadi generasi yang memberikan solusi bersama Suteki Technology. 
+#SolusiTeknologiPendidikan #SIAKAD #NewYear #KuliahOnline https://t.co/d0g5xQPJHE</t>
+  </si>
+  <si>
+    <t>SutekiTech</t>
+  </si>
+  <si>
+    <t>Fri Jan 01 08:30:35 +0000 2021</t>
+  </si>
+  <si>
+    <t>Kuliah di malam tahun baru check :v
+#kuliah 
+#kuliahonline
+#TahunBaru 
+#tahunbaru2021 https://t.co/kuUfM3JVXS</t>
+  </si>
+  <si>
+    <t>AalamRifky</t>
+  </si>
+  <si>
+    <t>Thu Dec 31 11:57:34 +0000 2020</t>
+  </si>
+  <si>
+    <t>Perhatikan Strategi ini kalau kamu mau sukses SNMPTN😍😍
+Cek selengkapnya di https://t.co/iZPb3i8faz 
+#snmptn #sbmptn #masukakmpus #beasiswa #infosnmptn #suksesutbk #pejuang21 #kuliahonline #kulon #fyi #fyp #indonesia #newyear #utbk2021 #snmptn2021 https://t.co/03ZZx3nsXj</t>
+  </si>
+  <si>
+    <t>Thu Dec 31 05:41:27 +0000 2020</t>
+  </si>
+  <si>
+    <t>Pernah gak si lagi kulon sampe ketiduran, bangun-bangun kek orang bego.
+#kulon #kuliahonline #Online</t>
+  </si>
+  <si>
+    <t>TrieSultan3</t>
+  </si>
+  <si>
+    <t>Thu Dec 31 02:56:33 +0000 2020</t>
   </si>
 </sst>
 </file>
@@ -1440,10 +1482,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D120"/>
+  <dimension ref="A1:D127"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A96" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I119" sqref="I119"/>
+    <sheetView tabSelected="1" topLeftCell="A108" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="I124" sqref="I124"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3128,6 +3170,104 @@
         <v>224</v>
       </c>
     </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A121">
+        <v>1.344923966788436E+18</v>
+      </c>
+      <c r="B121" t="s">
+        <v>271</v>
+      </c>
+      <c r="C121" t="s">
+        <v>272</v>
+      </c>
+      <c r="D121" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A122">
+        <v>1.344613666021204E+18</v>
+      </c>
+      <c r="B122" t="s">
+        <v>274</v>
+      </c>
+      <c r="C122" t="s">
+        <v>275</v>
+      </c>
+      <c r="D122" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A123">
+        <v>1.34451901193395E+18</v>
+      </c>
+      <c r="B123" t="s">
+        <v>277</v>
+      </c>
+      <c r="C123" t="s">
+        <v>11</v>
+      </c>
+      <c r="D123" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A124">
+        <v>1.344477516698935E+18</v>
+      </c>
+      <c r="B124" t="s">
+        <v>279</v>
+      </c>
+      <c r="C124" t="s">
+        <v>280</v>
+      </c>
+      <c r="D124" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A125">
+        <v>1.3442638976420129E+18</v>
+      </c>
+      <c r="B125" t="s">
+        <v>230</v>
+      </c>
+      <c r="C125" t="s">
+        <v>231</v>
+      </c>
+      <c r="D125" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A126">
+        <v>1.3442063215082171E+18</v>
+      </c>
+      <c r="B126" t="s">
+        <v>233</v>
+      </c>
+      <c r="C126" t="s">
+        <v>234</v>
+      </c>
+      <c r="D126" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A127">
+        <v>1.3441310977901811E+18</v>
+      </c>
+      <c r="B127" t="s">
+        <v>223</v>
+      </c>
+      <c r="C127" t="s">
+        <v>57</v>
+      </c>
+      <c r="D127" t="s">
+        <v>236</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/application/static/excel_data/data_crawling -- 6. #kuliahonline.xlsx
+++ b/application/static/excel_data/data_crawling -- 6. #kuliahonline.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="382" uniqueCount="282">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="289">
   <si>
     <t>id</t>
   </si>
@@ -1120,6 +1120,51 @@
   </si>
   <si>
     <t>Thu Dec 31 02:56:33 +0000 2020</t>
+  </si>
+  <si>
+    <t>Bayar semesteran enggak pernah semudah ini! Pilih metode pembayaran sesuai kebutuhan, gak pakai ribet. #SolusiTeknologiPendidikanIndonesia #Solutizen #SIAKAD #SutekiTech #KuliahOnline #pddikti #KampusMerdeka #feederpddikti #fintech #Herregistrasi https://t.co/kP24OXUHlp</t>
+  </si>
+  <si>
+    <t>Tue Jan 05 07:37:18 +0000 2021</t>
+  </si>
+  <si>
+    <t>#ready4BO
+ST / LT 💦
+Area JAKSEL🏨 
+Info DM📲 085772612527
+#RealAngel
+#bispakjakarta 
+#TRUSTEDBISYAR
+#includeroom
+#TRUSTEDBISYAR 
+#bisyarJaksel 
+#BOjakarta 
+#bisyarjakarta
+#TRUSTEDBISYAR
+#bispakjakarta
+#bojaksel
+#BOjakarta
+#KulinerLendir
+#KuliahOnline
+#openBOjaksel
+#AvailJaksel</t>
+  </si>
+  <si>
+    <t>Tue Jan 05 02:29:08 +0000 2021</t>
+  </si>
+  <si>
+    <t>dear:
+woiii tugas kuliah jangan gila gila bangettt yaaa!!😭😭
+gua baru semester 1 anjinggg,
+ga panteskan sambat muluuu taii🙂
+#kuliahonline 
+#daring #dear2021</t>
+  </si>
+  <si>
+    <t>bbyboonyasiapa</t>
+  </si>
+  <si>
+    <t>Sat Jan 02 17:43:25 +0000 2021</t>
   </si>
 </sst>
 </file>
@@ -1482,10 +1527,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D127"/>
+  <dimension ref="A1:D130"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A108" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I124" sqref="I124"/>
+    <sheetView tabSelected="1" topLeftCell="A123" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="K131" sqref="K131"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3268,6 +3313,48 @@
         <v>236</v>
       </c>
     </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A128">
+        <v>1.3463601085576151E+18</v>
+      </c>
+      <c r="B128" t="s">
+        <v>282</v>
+      </c>
+      <c r="C128" t="s">
+        <v>272</v>
+      </c>
+      <c r="D128" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A129">
+        <v>1.346282554106679E+18</v>
+      </c>
+      <c r="B129" t="s">
+        <v>284</v>
+      </c>
+      <c r="C129" t="s">
+        <v>70</v>
+      </c>
+      <c r="D129" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A130">
+        <v>1.345425477117247E+18</v>
+      </c>
+      <c r="B130" t="s">
+        <v>286</v>
+      </c>
+      <c r="C130" t="s">
+        <v>287</v>
+      </c>
+      <c r="D130" t="s">
+        <v>288</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/application/static/excel_data/data_crawling -- 6. #kuliahonline.xlsx
+++ b/application/static/excel_data/data_crawling -- 6. #kuliahonline.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="289">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="397" uniqueCount="289">
   <si>
     <t>id</t>
   </si>
@@ -1527,10 +1527,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D130"/>
+  <dimension ref="A1:D132"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A123" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="K131" sqref="K131"/>
+      <selection activeCell="K136" sqref="K136"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3355,6 +3355,34 @@
         <v>288</v>
       </c>
     </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A131">
+        <v>1.3463601085576151E+18</v>
+      </c>
+      <c r="B131" t="s">
+        <v>282</v>
+      </c>
+      <c r="C131" t="s">
+        <v>272</v>
+      </c>
+      <c r="D131" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A132">
+        <v>1.346282554106679E+18</v>
+      </c>
+      <c r="B132" t="s">
+        <v>284</v>
+      </c>
+      <c r="C132" t="s">
+        <v>70</v>
+      </c>
+      <c r="D132" t="s">
+        <v>285</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/application/static/excel_data/data_crawling -- 6. #kuliahonline.xlsx
+++ b/application/static/excel_data/data_crawling -- 6. #kuliahonline.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="397" uniqueCount="289">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="409" uniqueCount="301">
   <si>
     <t>id</t>
   </si>
@@ -1165,6 +1165,51 @@
   </si>
   <si>
     <t>Sat Jan 02 17:43:25 +0000 2021</t>
+  </si>
+  <si>
+    <t>Buat temen-temen maba 2020 km plat r malang gimana nih rasanya kuliah online?? pengin kuliah online atau ofline aja nih???
+#sangatberat
+#kuliahonline
+#daring</t>
+  </si>
+  <si>
+    <t>kmplatr_malang</t>
+  </si>
+  <si>
+    <t>Sun Jan 10 06:53:22 +0000 2021</t>
+  </si>
+  <si>
+    <t>Punya tips kuliah daring versi kamu?
+Share di kolom komentar!
+#kuliahdaring #mahasiswaindonesia #kuliahonline #kuliah #ppmschool https://t.co/kwNRthZPox</t>
+  </si>
+  <si>
+    <t>ppmschool</t>
+  </si>
+  <si>
+    <t>Sun Jan 10 04:00:00 +0000 2021</t>
+  </si>
+  <si>
+    <t>Halo sobat Homelab!
+Pernah mencari sebuah informasi namun hasil tidak sesuai dengan kata kunci?
+Kamu bisa gunakan perintah ini untuk hasil yang lebih akurat loh!
+Untuk tau cara kerja dan fungsinya cek di Instagram @Homelab.media ya!
+#homelab #kuliahonline #belajaronline #trik https://t.co/4VlkrjpNDP</t>
+  </si>
+  <si>
+    <t>Homelabmedia</t>
+  </si>
+  <si>
+    <t>Sat Jan 09 22:52:43 +0000 2021</t>
+  </si>
+  <si>
+    <t>Baru satu semester kuliah online, pola tidur gue bener2 jadi ngak teratur. Sekarang jam tidur gue kayak jam tidur kelelawar aja. Klau malam susah banget buat tidur cepat, tapi klau siang susah bnget buat ngak tidur. #masalahkuliahonline #kuliahonline</t>
+  </si>
+  <si>
+    <t>seniman_amatirr</t>
+  </si>
+  <si>
+    <t>Sat Jan 09 16:06:06 +0000 2021</t>
   </si>
 </sst>
 </file>
@@ -1527,10 +1572,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D132"/>
+  <dimension ref="A1:D136"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A123" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="K136" sqref="K136"/>
+      <selection activeCell="K133" sqref="K133"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3383,6 +3428,62 @@
         <v>285</v>
       </c>
     </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A133">
+        <v>1.348160991612137E+18</v>
+      </c>
+      <c r="B133" t="s">
+        <v>289</v>
+      </c>
+      <c r="C133" t="s">
+        <v>290</v>
+      </c>
+      <c r="D133" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A134">
+        <v>1.3481173635777779E+18</v>
+      </c>
+      <c r="B134" t="s">
+        <v>292</v>
+      </c>
+      <c r="C134" t="s">
+        <v>293</v>
+      </c>
+      <c r="D134" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A135">
+        <v>1.348040030212694E+18</v>
+      </c>
+      <c r="B135" t="s">
+        <v>295</v>
+      </c>
+      <c r="C135" t="s">
+        <v>296</v>
+      </c>
+      <c r="D135" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A136">
+        <v>1.3479377045252749E+18</v>
+      </c>
+      <c r="B136" t="s">
+        <v>298</v>
+      </c>
+      <c r="C136" t="s">
+        <v>299</v>
+      </c>
+      <c r="D136" t="s">
+        <v>300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/application/static/excel_data/data_crawling -- 6. #kuliahonline.xlsx
+++ b/application/static/excel_data/data_crawling -- 6. #kuliahonline.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="409" uniqueCount="301">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="427" uniqueCount="317">
   <si>
     <t>id</t>
   </si>
@@ -1210,6 +1210,69 @@
   </si>
   <si>
     <t>Sat Jan 09 16:06:06 +0000 2021</t>
+  </si>
+  <si>
+    <t>Kita masih juga berada di tengah-tengah pandemi #COVID19  sebagai mahasiswa, kita pun dituntut untuk menjalani kuliah secara online dengan berbagai macam media, salah satunya penggunaan website Kulino dari Universitas Dian Nuswantoro. #udinus #ilkomudinus #kuliahonline #pandemic https://t.co/eVOEk0BRK5</t>
+  </si>
+  <si>
+    <t>afifatrrhm</t>
+  </si>
+  <si>
+    <t>Sat Jan 16 15:19:12 +0000 2021</t>
+  </si>
+  <si>
+    <t>Halo sobat Homelab!
+Pernahkah kamu merasa cepat bosan saat belajar?
+Berikut beberapa tipe gaya belajar yang bisa kamu coba
+Cek sekarang : https://t.co/t8TYtHZJeY
+#homelab #askhomelab #belajaronline #kuliahonline #mahasiswa #belajarbarengberkolaborasibareng #tipsdantrikhomelab https://t.co/KTm3vuRyK3</t>
+  </si>
+  <si>
+    <t>askhomelab</t>
+  </si>
+  <si>
+    <t>Sat Jan 16 00:21:39 +0000 2021</t>
+  </si>
+  <si>
+    <t>PPM School of Management x Asia University Taiwan!
+Selama 5 tahun, akan menjalani program kuliah S1 &amp;amp; S2 dan akan mendapat gelar S.M/S.Ak + B.B.A &amp;amp; MBA dengan kuliah di PPM SoM &amp;amp; Asia University. 
+Daftar sekarang https://t.co/U3y7syYevj
+Info: 0878-7618-5364(WA)
+#kuliahonline https://t.co/ylZ0n862af</t>
+  </si>
+  <si>
+    <t>Fri Jan 15 12:00:01 +0000 2021</t>
+  </si>
+  <si>
+    <t>jual akun zoom max 100 participants starts from 11K. u/ info &amp;amp; pemesanan WA: 081211432057 (fast respon). no dm twt/ig. testi check pinned twt.
+#ZoomMeeting #beliakunzoom bukan #sewazoom #sekolahonline #kuliahonline #ingatpesanibu #arisanonline https://t.co/IDkUjQp4JC</t>
+  </si>
+  <si>
+    <t>beliakunzoom</t>
+  </si>
+  <si>
+    <t>Fri Jan 15 03:44:42 +0000 2021</t>
+  </si>
+  <si>
+    <t>Ketika Masuk.... 
+Maba 2021 : Misi kak gedung itu namanya apa?
+2020 : Gatau kan kita sama-sama maba, belum safari fakultas 😅
+#mahasiswa #kuliahonline</t>
+  </si>
+  <si>
+    <t>istiqomah2110</t>
+  </si>
+  <si>
+    <t>Wed Jan 13 15:17:54 +0000 2021</t>
+  </si>
+  <si>
+    <t>📖BEDAH BUKU📖
+Pada Event Bedah Buku ini, kami mengundang Bapak Ade S. Martadipura selaku Vice President - Senior Culture Specialist Bank Mandiri sekaligus penulis dari buku "Happy Leadership"
+Ayo segera daftarkan diri kamu karena ❗Kuota Terbatas❗
+#bedahbuku #kuliahonline https://t.co/tbxCdZu2K6</t>
+  </si>
+  <si>
+    <t>Tue Jan 12 12:24:19 +0000 2021</t>
   </si>
 </sst>
 </file>
@@ -1572,10 +1635,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D136"/>
+  <dimension ref="A1:D142"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A123" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="K133" sqref="K133"/>
+      <selection activeCell="I136" sqref="I136"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3484,6 +3547,90 @@
         <v>300</v>
       </c>
     </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A137">
+        <v>1.3504626166493629E+18</v>
+      </c>
+      <c r="B137" t="s">
+        <v>301</v>
+      </c>
+      <c r="C137" t="s">
+        <v>302</v>
+      </c>
+      <c r="D137" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A138">
+        <v>1.350236738552119E+18</v>
+      </c>
+      <c r="B138" t="s">
+        <v>304</v>
+      </c>
+      <c r="C138" t="s">
+        <v>305</v>
+      </c>
+      <c r="D138" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A139">
+        <v>1.3500501009078231E+18</v>
+      </c>
+      <c r="B139" t="s">
+        <v>307</v>
+      </c>
+      <c r="C139" t="s">
+        <v>293</v>
+      </c>
+      <c r="D139" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A140">
+        <v>1.3499254507310451E+18</v>
+      </c>
+      <c r="B140" t="s">
+        <v>309</v>
+      </c>
+      <c r="C140" t="s">
+        <v>310</v>
+      </c>
+      <c r="D140" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A141">
+        <v>1.349375123703296E+18</v>
+      </c>
+      <c r="B141" t="s">
+        <v>312</v>
+      </c>
+      <c r="C141" t="s">
+        <v>313</v>
+      </c>
+      <c r="D141" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A142">
+        <v>1.3489690532814029E+18</v>
+      </c>
+      <c r="B142" t="s">
+        <v>315</v>
+      </c>
+      <c r="C142" t="s">
+        <v>293</v>
+      </c>
+      <c r="D142" t="s">
+        <v>316</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/application/static/excel_data/data_crawling -- 6. #kuliahonline.xlsx
+++ b/application/static/excel_data/data_crawling -- 6. #kuliahonline.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="427" uniqueCount="317">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="454" uniqueCount="342">
   <si>
     <t>id</t>
   </si>
@@ -1273,6 +1273,143 @@
   </si>
   <si>
     <t>Tue Jan 12 12:24:19 +0000 2021</t>
+  </si>
+  <si>
+    <t>Open yaah💋💞
+0895336327408
+#RealAngel
+#bispakbonang
+#TRUSTEDBISYAR
+#includeroom
+#TRUSTEDBISYAR 
+#bisyarbontang
+#BObontang
+#bisyarbontang
+#TRUSTEDBISYAR
+#bispakbntng
+#bobntng
+#BObntang
+#KulinerLendir
+#KuliahOnline
+#openBObontang
+#Availbontang https://t.co/ML5iO2tKvX</t>
+  </si>
+  <si>
+    <t>Readytrusteed</t>
+  </si>
+  <si>
+    <t>Fri Jan 22 12:30:51 +0000 2021</t>
+  </si>
+  <si>
+    <t>Selama masa pandemi kegiatan belajar dilakukan secara daring. Ada banyak platform belajar, namum Udinus punya platform sendiri yaitu Kulino. Apa itu kulino? Mari simak vidionya
+#udinus
+#ilmukomunikasi
+#ilkom
+#kulino
+#kuliahonline 
+#kampushits 
+#belajardarirumah 
+#pandemic https://t.co/KZyNsTzPqw</t>
+  </si>
+  <si>
+    <t>faisolrifai_</t>
+  </si>
+  <si>
+    <t>Thu Jan 21 06:07:57 +0000 2021</t>
+  </si>
+  <si>
+    <t>@FtriJr Alhamdulillah, lapar tu pun nikmat juga fit, makan laa.. tapi ingat! yg afdhal nya berhenti sebelum kenyang. 
+#kuliahonline</t>
+  </si>
+  <si>
+    <t>Azereez_</t>
+  </si>
+  <si>
+    <t>Wed Jan 20 17:21:05 +0000 2021</t>
+  </si>
+  <si>
+    <t>Muka muka bantal check... 
+ .
+Lu tahu kan rasanya gimana ngabs... baru bangun langsung kuliah yang wajib on cam🤣
+#kuliah 
+#kuliahdaring
+#kuliahonline https://t.co/PodcQ20qiF</t>
+  </si>
+  <si>
+    <t>rifkyachmadalam</t>
+  </si>
+  <si>
+    <t>Wed Jan 20 03:31:16 +0000 2021</t>
+  </si>
+  <si>
+    <t>dari pada pusing mikirin #Nadin dan #kristengray ditambah mikirin tugas #KuliahOnline yang menumpuk , yuk bisa #JOKIIN tugas nya di aku , Dikerjakan sampe tuntas dan Trusted🙏
+Yang Minat bisa Whatsapp aja yah 08812947260 , terimakasih🤗✨</t>
+  </si>
+  <si>
+    <t>Deyyanisha</t>
+  </si>
+  <si>
+    <t>Tue Jan 19 09:18:51 +0000 2021</t>
+  </si>
+  <si>
+    <t>READY PAGI INI YAAH💋💞
+0895336327408
+#RealAngel
+#bispakbonang
+#TRUSTEDBISYAR
+#includeroom
+#TRUSTEDBISYAR 
+#bisyarbontang
+#BObontang
+#bisyarbontang
+#TRUSTEDBISYAR
+#bispakbntng
+#bobntng
+#BObntang
+#KulinerLendir
+#KuliahOnline
+#openBObontang
+#Availbontang https://t.co/WvUiD27Dby</t>
+  </si>
+  <si>
+    <t>Tue Jan 19 03:32:13 +0000 2021</t>
+  </si>
+  <si>
+    <t>2020-2021 ga terasa ya
+Ntar lagi udh tingkat akhir 
+Padahal cuma iya pak, iya buk doang 😁
+#kuliahonline 
+#calonmahasiswaabadi
+#mahasiswaindonesia
+#salamperjuangan</t>
+  </si>
+  <si>
+    <t>26Msitepu</t>
+  </si>
+  <si>
+    <t>Mon Jan 18 13:11:22 +0000 2021</t>
+  </si>
+  <si>
+    <t>Persiapkan diri jadi Akuntan Profesional sejak kuliah!
+✅ Fasilitas Tablet
+✅ Kurikulum Berstandar Internasional
+✅ Dukungan Fasilitas Berbagai Sertifikasi
+✅ Soft Skill Development
+Info: 0878-7618-5364 (WA)
+Daftar: https://t.co/wu1C0jJlhE
+#kuliahonline #beasiswapenuh #kuliah https://t.co/NvHmyHvBMz</t>
+  </si>
+  <si>
+    <t>Mon Jan 18 07:00:01 +0000 2021</t>
+  </si>
+  <si>
+    <t>UAS Pertama dengan #kuliahonline</t>
+  </si>
+  <si>
+    <t>HamzahMuhammadd</t>
+  </si>
+  <si>
+    <t>Mon Jan 18 04:06:31 +0000 2021</t>
   </si>
 </sst>
 </file>
@@ -1635,10 +1772,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D142"/>
+  <dimension ref="A1:D151"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A123" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I136" sqref="I136"/>
+    <sheetView tabSelected="1" topLeftCell="A126" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="I144" sqref="I144"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3631,6 +3768,132 @@
         <v>316</v>
       </c>
     </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A143">
+        <v>1.3525945738689541E+18</v>
+      </c>
+      <c r="B143" t="s">
+        <v>317</v>
+      </c>
+      <c r="C143" t="s">
+        <v>318</v>
+      </c>
+      <c r="D143" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A144">
+        <v>1.3521358296326879E+18</v>
+      </c>
+      <c r="B144" t="s">
+        <v>320</v>
+      </c>
+      <c r="C144" t="s">
+        <v>321</v>
+      </c>
+      <c r="D144" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A145">
+        <v>1.351942837944812E+18</v>
+      </c>
+      <c r="B145" t="s">
+        <v>323</v>
+      </c>
+      <c r="C145" t="s">
+        <v>324</v>
+      </c>
+      <c r="D145" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A146">
+        <v>1.351734008388862E+18</v>
+      </c>
+      <c r="B146" t="s">
+        <v>326</v>
+      </c>
+      <c r="C146" t="s">
+        <v>327</v>
+      </c>
+      <c r="D146" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A147">
+        <v>1.3514590944906199E+18</v>
+      </c>
+      <c r="B147" t="s">
+        <v>329</v>
+      </c>
+      <c r="C147" t="s">
+        <v>330</v>
+      </c>
+      <c r="D147" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A148">
+        <v>1.3513718597831391E+18</v>
+      </c>
+      <c r="B148" t="s">
+        <v>332</v>
+      </c>
+      <c r="C148" t="s">
+        <v>318</v>
+      </c>
+      <c r="D148" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A149">
+        <v>1.3511552214189591E+18</v>
+      </c>
+      <c r="B149" t="s">
+        <v>334</v>
+      </c>
+      <c r="C149" t="s">
+        <v>335</v>
+      </c>
+      <c r="D149" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A150">
+        <v>1.35106176538846E+18</v>
+      </c>
+      <c r="B150" t="s">
+        <v>337</v>
+      </c>
+      <c r="C150" t="s">
+        <v>293</v>
+      </c>
+      <c r="D150" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A151">
+        <v>1.351018106185986E+18</v>
+      </c>
+      <c r="B151" t="s">
+        <v>339</v>
+      </c>
+      <c r="C151" t="s">
+        <v>340</v>
+      </c>
+      <c r="D151" t="s">
+        <v>341</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/application/static/excel_data/data_crawling -- 6. #kuliahonline.xlsx
+++ b/application/static/excel_data/data_crawling -- 6. #kuliahonline.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="454" uniqueCount="342">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="499" uniqueCount="381">
   <si>
     <t>id</t>
   </si>
@@ -1410,6 +1410,155 @@
   </si>
   <si>
     <t>Mon Jan 18 04:06:31 +0000 2021</t>
+  </si>
+  <si>
+    <t>Kuliah online, mahasiswa tua bimbinganpun online. Nunggu balesan dosen lwbih nyakitin dari pada nunggu balesan doi. 
+Balesnya itu seminggu-dua minggu bahkan sebulan dan kita dituntut tetep setia. 
+#DramaTwitter #dramamahasiswa #mahasiswatua #kuliahonline #covid19 #mahasiswa</t>
+  </si>
+  <si>
+    <t>kikisyaumi</t>
+  </si>
+  <si>
+    <t>Thu Jan 28 06:04:45 +0000 2021</t>
+  </si>
+  <si>
+    <t>Selamat pagi Akatelizen, sedikit informasi mengenai Jalur pendaftaran, yang bisa kalian lihat dibawa ini!!
+#pmbonlinecheck #pmb2021 #masukkampus #kuliahonline #akademitelkomjakarta https://t.co/WI97IIdnsq</t>
+  </si>
+  <si>
+    <t>AkademiTelkom</t>
+  </si>
+  <si>
+    <t>Thu Jan 28 02:55:42 +0000 2021</t>
+  </si>
+  <si>
+    <t>@10Lucu 2. Kerjasama antar negara dalam hal pemanfaatan ruang angkasa sudah di lakukan banyak negara seperti peluncuran satelit, di pergunakan oleh beberapa negara yang bekerja sama sebagai pentambung alat komunikasi atau kebutuhan militer 
+#kuliahonline</t>
+  </si>
+  <si>
+    <t>wnnyrzkwndhh</t>
+  </si>
+  <si>
+    <t>Wed Jan 27 11:50:40 +0000 2021</t>
+  </si>
+  <si>
+    <t>Halo sobat Homelab!
+Ternyata ada fakta menakjubkan seputar startup di Indonesia.
+#askhomelab #homelab #kuliahonline #belajarbareng #BelajarBarengBerkolaborasiBareng #infodanfaktahomelab https://t.co/K8TpxOO9L2</t>
+  </si>
+  <si>
+    <t>Wed Jan 27 09:49:29 +0000 2021</t>
+  </si>
+  <si>
+    <t>Kalian kalau kuliah tim apa? #kuliahonline</t>
+  </si>
+  <si>
+    <t>selamatmorning_</t>
+  </si>
+  <si>
+    <t>Wed Jan 27 03:01:12 +0000 2021</t>
+  </si>
+  <si>
+    <t>Gua Pas Mau Ngerjain Tugas be like :
+"Ntar aja dah Ntar" 
+"Siang dah siang"
+"Agak maleman dah"
+Tiba2 H-1 
+"Eh anjir Tugas gua belom 😱 Seketika IQ Gua Naik 💯% Saking panik nya wkwk"
+#kuliah #kuliahonline #tugas #PSBB</t>
+  </si>
+  <si>
+    <t>Sanjaya_jayy</t>
+  </si>
+  <si>
+    <t>Sun Jan 24 06:36:13 +0000 2021</t>
+  </si>
+  <si>
+    <t>"bila dua menjadi satu, maka seyogyanya untuk sejumlah n bisa ditransformasikan menjadi integritas" ~s.n.m.p. simamora (pakar telematika) #KuliahOnLine #Pemodelan_simulasi 👍</t>
+  </si>
+  <si>
+    <t>EvanyaHelen</t>
+  </si>
+  <si>
+    <t>Sun Jan 24 03:10:23 +0000 2021</t>
+  </si>
+  <si>
+    <t>Halo sobat Homelab!
+Yuk dukung perkembangan UMKM Indonesia agar dapat bersaing secara global 
+https://t.co/vKyBCBHC3d
+https://t.co/t8TYtHZJeY
+#askhomelab #Homelab #Mahasiswa #KuliahOnline #UMKM https://t.co/6Qg8SYUU8D</t>
+  </si>
+  <si>
+    <t>Sun Jan 24 02:34:51 +0000 2021</t>
+  </si>
+  <si>
+    <t>Ssssst 🤫
+Bentar lagi UAS 🤭
+Btw selamat malam mingguan gengs 😌
+#institutteknologiindonesia #kampusiti #kampusteknik #anakteknik #kuliahonline https://t.co/rHTnsIMKjB</t>
+  </si>
+  <si>
+    <t>KampusITI</t>
+  </si>
+  <si>
+    <t>Sat Jan 23 15:14:49 +0000 2021</t>
+  </si>
+  <si>
+    <t>#NGOBROLBEBAS Part 05 | KKN DI DESA PENDEMI! (Keluh Kesah Mahasiswa dan ... https://t.co/6hsNp7h8ar via @YouTube 
+#Kuliahonline #kknvirtual2021 #KKNdiDesaPandemi</t>
+  </si>
+  <si>
+    <t>JimmyAnse</t>
+  </si>
+  <si>
+    <t>Sat Jan 23 08:42:07 +0000 2021</t>
+  </si>
+  <si>
+    <t>Ingat ilmu di masa kuliah akan bisa mengantarkan kesuksesannmu kelak girls.
+Daripada jenuh terus, yuks cari tahu 6 Trik anti jenuh kuliah online di postingan ini ya 👇😉
+#pembalutindonesia #mahasiswi #mahasiswicantik #mahasiswibaru #mahasiswihits #kuliahonline #kuliahdaring</t>
+  </si>
+  <si>
+    <t>Tiaraanastas</t>
+  </si>
+  <si>
+    <t>Sat Jan 23 08:20:05 +0000 2021</t>
+  </si>
+  <si>
+    <t>Suwe ga nulis
+Sekali nulis suwe tenan... 
+#kuliahonline😌</t>
+  </si>
+  <si>
+    <t>zidniilma__</t>
+  </si>
+  <si>
+    <t>Sat Jan 23 07:42:01 +0000 2021</t>
+  </si>
+  <si>
+    <t>Mata Kuliah SBM (Strategi Belajar Mengajar)
+Dosen : Ibu Retno Handayani S.Pd.I
+#kuliahonline #lbkpiqro #pgtkitiqro #pelatihangurutk https://t.co/mBXAvbkNSN</t>
+  </si>
+  <si>
+    <t>IQROku</t>
+  </si>
+  <si>
+    <t>Sat Jan 23 05:57:59 +0000 2021</t>
+  </si>
+  <si>
+    <t>KONTEN INI 
+disponsori oleh: Mobile Legend, Bantal Guling. 
+Dan didukung oleh: rebahan, mager, HP miring, temen bgst wkwk :v
+Padahal ibunya baik huhuhu :(
+#kuliah
+#kuliahdaring
+#kuliahonline https://t.co/Xwx0M3d3Ee</t>
+  </si>
+  <si>
+    <t>Sat Jan 23 02:19:26 +0000 2021</t>
   </si>
 </sst>
 </file>
@@ -1772,10 +1921,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D151"/>
+  <dimension ref="A1:D166"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A126" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I144" sqref="I144"/>
+    <sheetView tabSelected="1" topLeftCell="A135" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="I160" sqref="I160"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3894,6 +4043,216 @@
         <v>341</v>
       </c>
     </row>
+    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A152">
+        <v>1.354671737414197E+18</v>
+      </c>
+      <c r="B152" t="s">
+        <v>342</v>
+      </c>
+      <c r="C152" t="s">
+        <v>343</v>
+      </c>
+      <c r="D152" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A153">
+        <v>1.3546241616546079E+18</v>
+      </c>
+      <c r="B153" t="s">
+        <v>345</v>
+      </c>
+      <c r="C153" t="s">
+        <v>346</v>
+      </c>
+      <c r="D153" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A154">
+        <v>1.354396403657662E+18</v>
+      </c>
+      <c r="B154" t="s">
+        <v>348</v>
+      </c>
+      <c r="C154" t="s">
+        <v>349</v>
+      </c>
+      <c r="D154" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A155">
+        <v>1.3543659037778529E+18</v>
+      </c>
+      <c r="B155" t="s">
+        <v>351</v>
+      </c>
+      <c r="C155" t="s">
+        <v>305</v>
+      </c>
+      <c r="D155" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A156">
+        <v>1.3542631572801091E+18</v>
+      </c>
+      <c r="B156" t="s">
+        <v>353</v>
+      </c>
+      <c r="C156" t="s">
+        <v>354</v>
+      </c>
+      <c r="D156" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A157">
+        <v>1.3532301040468831E+18</v>
+      </c>
+      <c r="B157" t="s">
+        <v>356</v>
+      </c>
+      <c r="C157" t="s">
+        <v>357</v>
+      </c>
+      <c r="D157" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A158">
+        <v>1.353178305017463E+18</v>
+      </c>
+      <c r="B158" t="s">
+        <v>359</v>
+      </c>
+      <c r="C158" t="s">
+        <v>360</v>
+      </c>
+      <c r="D158" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A159">
+        <v>1.353169364875244E+18</v>
+      </c>
+      <c r="B159" t="s">
+        <v>362</v>
+      </c>
+      <c r="C159" t="s">
+        <v>305</v>
+      </c>
+      <c r="D159" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A160">
+        <v>1.352998228501942E+18</v>
+      </c>
+      <c r="B160" t="s">
+        <v>364</v>
+      </c>
+      <c r="C160" t="s">
+        <v>365</v>
+      </c>
+      <c r="D160" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A161">
+        <v>1.3528993998195141E+18</v>
+      </c>
+      <c r="B161" t="s">
+        <v>367</v>
+      </c>
+      <c r="C161" t="s">
+        <v>368</v>
+      </c>
+      <c r="D161" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A162">
+        <v>1.3528938559142909E+18</v>
+      </c>
+      <c r="B162" t="s">
+        <v>370</v>
+      </c>
+      <c r="C162" t="s">
+        <v>371</v>
+      </c>
+      <c r="D162" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A163">
+        <v>1.3528842782252969E+18</v>
+      </c>
+      <c r="B163" t="s">
+        <v>373</v>
+      </c>
+      <c r="C163" t="s">
+        <v>374</v>
+      </c>
+      <c r="D163" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A164">
+        <v>1.3528580936386109E+18</v>
+      </c>
+      <c r="B164" t="s">
+        <v>376</v>
+      </c>
+      <c r="C164" t="s">
+        <v>377</v>
+      </c>
+      <c r="D164" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A165">
+        <v>1.352803093683925E+18</v>
+      </c>
+      <c r="B165" t="s">
+        <v>379</v>
+      </c>
+      <c r="C165" t="s">
+        <v>327</v>
+      </c>
+      <c r="D165" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A166">
+        <v>1.3525945738689541E+18</v>
+      </c>
+      <c r="B166" t="s">
+        <v>317</v>
+      </c>
+      <c r="C166" t="s">
+        <v>318</v>
+      </c>
+      <c r="D166" t="s">
+        <v>319</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
